--- a/api/templates/persons.xlsx
+++ b/api/templates/persons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\vbs\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570ABE4-E457-45E4-B7E4-CEA04A8F9C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FCE3AC-A591-4B13-9BF1-A1833A8AD543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
